--- a/data/trans_bre/P14_x_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P14_x_R-Estudios-trans_bre.xlsx
@@ -678,12 +678,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,58; 14,44</t>
+          <t>8,87; 14,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,59; 12,34</t>
+          <t>5,17; 12,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>126,97; 359,13</t>
+          <t>132,25; 357,22</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>42,39; 143,16</t>
+          <t>40,15; 140,45</t>
         </is>
       </c>
     </row>
@@ -778,12 +778,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,37; 7,32</t>
+          <t>4,35; 7,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,18; 7,02</t>
+          <t>3,26; 6,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -798,12 +798,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>124,75; 316,53</t>
+          <t>121,73; 303,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>55,39; 154,24</t>
+          <t>51,29; 151,89</t>
         </is>
       </c>
     </row>
@@ -878,12 +878,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 3,25</t>
+          <t>-0,7; 3,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 4,37</t>
+          <t>-0,75; 4,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -898,12 +898,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-34,86; 302,65</t>
+          <t>-32,7; 364,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-14,69; 117,52</t>
+          <t>-14,35; 112,06</t>
         </is>
       </c>
     </row>
@@ -978,12 +978,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,66; 8,2</t>
+          <t>5,61; 8,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,2; 7,07</t>
+          <t>4,25; 7,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -998,12 +998,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>151,84; 286,24</t>
+          <t>148,65; 292,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>62,52; 125,02</t>
+          <t>63,42; 130,63</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P14_x_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P14_x_R-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,87; 14,75</t>
+          <t>8,46; 14,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>132,25; 357,22</t>
+          <t>129,87; 359,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,35; 7,43</t>
+          <t>4,35; 7,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>121,73; 303,98</t>
+          <t>126,59; 321,76</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -878,7 +878,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 3,64</t>
+          <t>-0,6; 3,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -898,7 +898,7 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-32,7; 364,39</t>
+          <t>-34,66; 304,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,61; 8,15</t>
+          <t>5,62; 8,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -998,7 +998,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>148,65; 292,07</t>
+          <t>148,56; 290,32</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
